--- a/data/equip.xlsx
+++ b/data/equip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24860" windowHeight="11200"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="112">
   <si>
     <t>id</t>
   </si>
@@ -379,7 +379,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,43 +448,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -438,49 +455,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,20 +479,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,7 +542,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,31 +590,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,145 +698,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,40 +755,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,17 +771,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,6 +791,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -854,157 +839,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1021,9 +1015,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1032,54 +1023,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1346,7 +1337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:BC5"/>
   <sheetViews>
@@ -1355,33 +1346,33 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="10.4107142857143" customWidth="1"/>
+    <col min="1" max="1" width="10.4083333333333" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="6.39285714285714" customWidth="1"/>
-    <col min="4" max="5" width="7.58928571428571" customWidth="1"/>
-    <col min="6" max="7" width="10.1428571428571" customWidth="1"/>
-    <col min="8" max="8" width="9.96428571428571" customWidth="1"/>
-    <col min="9" max="15" width="10.1428571428571" customWidth="1"/>
-    <col min="16" max="19" width="17.3571428571429" customWidth="1"/>
-    <col min="20" max="21" width="12.5714285714286" customWidth="1"/>
-    <col min="22" max="25" width="22.1428571428571" customWidth="1"/>
-    <col min="26" max="27" width="17.3571428571429" customWidth="1"/>
-    <col min="28" max="31" width="22.1428571428571" customWidth="1"/>
-    <col min="32" max="33" width="17.3571428571429" customWidth="1"/>
-    <col min="34" max="35" width="10.1428571428571" customWidth="1"/>
-    <col min="36" max="37" width="12.5714285714286" customWidth="1"/>
-    <col min="38" max="39" width="14.9285714285714" customWidth="1"/>
-    <col min="40" max="41" width="10.1428571428571" customWidth="1"/>
-    <col min="42" max="43" width="12.5714285714286" customWidth="1"/>
-    <col min="44" max="45" width="17.3571428571429" customWidth="1"/>
-    <col min="46" max="49" width="12.5714285714286" customWidth="1"/>
-    <col min="50" max="51" width="12.1428571428571" customWidth="1"/>
-    <col min="52" max="53" width="10.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="6.39166666666667" customWidth="1"/>
+    <col min="4" max="5" width="7.59166666666667" customWidth="1"/>
+    <col min="6" max="7" width="10.1416666666667" customWidth="1"/>
+    <col min="8" max="8" width="9.96666666666667" customWidth="1"/>
+    <col min="9" max="15" width="10.1416666666667" customWidth="1"/>
+    <col min="16" max="19" width="17.3583333333333" customWidth="1"/>
+    <col min="20" max="21" width="12.575" customWidth="1"/>
+    <col min="22" max="25" width="22.1416666666667" customWidth="1"/>
+    <col min="26" max="27" width="17.3583333333333" customWidth="1"/>
+    <col min="28" max="31" width="22.1416666666667" customWidth="1"/>
+    <col min="32" max="33" width="17.3583333333333" customWidth="1"/>
+    <col min="34" max="35" width="10.1416666666667" customWidth="1"/>
+    <col min="36" max="37" width="12.575" customWidth="1"/>
+    <col min="38" max="39" width="14.925" customWidth="1"/>
+    <col min="40" max="41" width="10.1416666666667" customWidth="1"/>
+    <col min="42" max="43" width="12.575" customWidth="1"/>
+    <col min="44" max="45" width="17.3583333333333" customWidth="1"/>
+    <col min="46" max="49" width="12.575" customWidth="1"/>
+    <col min="50" max="51" width="12.1416666666667" customWidth="1"/>
+    <col min="52" max="53" width="10.1416666666667" customWidth="1"/>
     <col min="54" max="55" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1413,142 +1404,142 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AY1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BA1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BB1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1899,6 +1890,9 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
+      <c r="F4" s="4">
+        <v>10001</v>
+      </c>
       <c r="H4" s="4">
         <v>1</v>
       </c>
@@ -1931,6 +1925,9 @@
       <c r="D5" s="4">
         <v>4</v>
       </c>
+      <c r="F5" s="4">
+        <v>10002</v>
+      </c>
       <c r="H5" s="4">
         <v>1</v>
       </c>
@@ -1943,8 +1940,7 @@
       <c r="K5" s="4">
         <v>2000</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="4"/>
+      <c r="N5" s="6"/>
       <c r="P5" s="4">
         <v>100</v>
       </c>

--- a/data/equip.xlsx
+++ b/data/equip.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>id</t>
   </si>
@@ -31,6 +31,12 @@
     <t>attr</t>
   </si>
   <si>
+    <t>artinum</t>
+  </si>
+  <si>
+    <t>arti</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -44,6 +50,12 @@
   </si>
   <si>
     <t>属性id</t>
+  </si>
+  <si>
+    <t>附加属性最大条目</t>
+  </si>
+  <si>
+    <t>附加属性</t>
   </si>
 </sst>
 </file>
@@ -1030,20 +1042,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.4107142857143" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.125" style="2" customWidth="1"/>
     <col min="3" max="5" width="10.1428571428571" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7142857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.0625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:5">
+    <row r="1" customFormat="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1059,42 +1073,60 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" customFormat="1" spans="1:5">
+    <row r="2" customFormat="1" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:5">
+    <row r="3" customFormat="1" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:5">
+    <row r="4" customFormat="1" spans="1:7">
       <c r="A4" s="1">
         <v>30001</v>
       </c>
@@ -1106,8 +1138,14 @@
       <c r="E4" s="1">
         <v>10001</v>
       </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10002</v>
+      </c>
     </row>
-    <row r="5" customFormat="1" spans="1:5">
+    <row r="5" customFormat="1" spans="1:7">
       <c r="A5" s="1">
         <v>30002</v>
       </c>
@@ -1118,6 +1156,12 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1">
         <v>10002</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10003</v>
       </c>
     </row>
   </sheetData>

--- a/data/equip.xlsx
+++ b/data/equip.xlsx
@@ -19,7 +19,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>pos</t>
+    <t>wear</t>
   </si>
   <si>
     <t>inlook</t>
@@ -49,20 +49,21 @@
     <t>外观资源</t>
   </si>
   <si>
-    <t>属性id</t>
-  </si>
-  <si>
-    <t>附加属性最大条目</t>
-  </si>
-  <si>
-    <t>附加属性</t>
+    <t>主属性</t>
+  </si>
+  <si>
+    <t>副属性最大数量</t>
+  </si>
+  <si>
+    <t>副属性</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -704,10 +705,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -721,6 +725,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1045,122 +1052,122 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A4" sqref="$A4:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.4107142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="2" customWidth="1"/>
-    <col min="3" max="5" width="10.1428571428571" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7142857142857" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.0625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.4107142857143" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="3" customWidth="1"/>
+    <col min="3" max="5" width="10.1428571428571" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.7142857142857" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.0625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:7">
-      <c r="A4" s="1">
+    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="A4" s="7">
         <v>30001</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
         <v>10001</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="7">
         <v>10002</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:7">
-      <c r="A5" s="1">
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="7">
         <v>30002</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
         <v>10002</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="7">
         <v>2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="7">
         <v>10003</v>
       </c>
     </row>

--- a/data/equip.xlsx
+++ b/data/equip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24860" windowHeight="11200"/>
+    <workbookView xWindow="12040" windowWidth="12040" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="6"/>

--- a/data/equip.xlsx
+++ b/data/equip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="12040" windowWidth="12040" windowHeight="8460"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -63,11 +63,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -79,21 +79,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,6 +168,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -122,101 +198,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,13 +249,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,61 +375,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,103 +411,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,11 +458,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,41 +497,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,6 +523,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -555,153 +540,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -733,54 +733,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1047,21 +1047,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.4107142857143" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.4083333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.125" style="3" customWidth="1"/>
-    <col min="3" max="5" width="10.1428571428571" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.7142857142857" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.0625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="10.1416666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.7166666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.0666666666667" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:7">
@@ -1140,7 +1140,9 @@
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7">
+        <v>30001</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7">
         <v>10001</v>
@@ -1159,7 +1161,9 @@
       <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7">
+        <v>30002</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7">
         <v>10002</v>

--- a/data/equip.xlsx
+++ b/data/equip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="24860" windowHeight="10600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>id</t>
   </si>
@@ -63,11 +63,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -79,6 +79,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -86,6 +108,45 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -95,6 +156,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -102,7 +186,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,112 +221,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -249,43 +249,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,139 +429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,17 +458,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,15 +500,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -521,11 +515,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,148 +560,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -733,54 +733,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1047,21 +1047,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.4083333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.4107142857143" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.125" style="3" customWidth="1"/>
-    <col min="3" max="5" width="10.1416666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.7166666666667" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.0666666666667" style="2" customWidth="1"/>
+    <col min="3" max="5" width="10.1428571428571" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.7142857142857" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.0625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:7">
@@ -1141,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="7">
-        <v>30001</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>30002</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7">

--- a/data/equip.xlsx
+++ b/data/equip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24860" windowHeight="10600"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -64,10 +64,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -78,6 +78,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -85,23 +131,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,9 +184,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,95 +215,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -249,187 +249,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,6 +458,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -471,31 +486,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,6 +521,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -541,17 +547,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,148 +560,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -733,54 +733,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1047,21 +1047,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.4107142857143" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.4083333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.125" style="3" customWidth="1"/>
-    <col min="3" max="5" width="10.1428571428571" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.7142857142857" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.0625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="10.1416666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.7166666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.0666666666667" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:7">
@@ -1143,7 +1143,9 @@
       <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>100</v>
+      </c>
       <c r="E4" s="7">
         <v>10001</v>
       </c>
@@ -1164,7 +1166,9 @@
       <c r="C5" s="7">
         <v>11</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>100</v>
+      </c>
       <c r="E5" s="7">
         <v>10002</v>
       </c>
@@ -1172,6 +1176,29 @@
         <v>2</v>
       </c>
       <c r="G5" s="7">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:7">
+      <c r="A6" s="7">
+        <v>30003</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>50</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1700</v>
+      </c>
+      <c r="E6" s="7">
+        <v>10002</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7">
         <v>10003</v>
       </c>
     </row>
